--- a/xlsx/航空_intext.xlsx
+++ b/xlsx/航空_intext.xlsx
@@ -15,7 +15,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="255">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="254">
   <si>
     <t>航空</t>
   </si>
@@ -95,7 +95,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E7%87%88</t>
   </si>
   <si>
-    <t>天燈</t>
+    <t>天灯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%BE%C2%B7%E8%8A%AC%E5%A5%87</t>
@@ -155,7 +155,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%96%AF%E7%B4%8DC-170</t>
   </si>
   <si>
-    <t>塞斯納C-170</t>
+    <t>塞斯纳C-170</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E4%B8%AD%E5%AE%A2%E8%BD%A6%E5%85%AC%E5%8F%B8</t>
@@ -167,13 +167,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%B3%95%E5%9C%8B</t>
   </si>
   <si>
-    <t>法國</t>
+    <t>法国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E7%9B%A7%E8%8C%B2</t>
   </si>
   <si>
-    <t>圖盧茲</t>
+    <t>图卢兹</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B3%A2%E9%9F%B3%E5%85%AC%E5%8F%B8</t>
@@ -185,25 +185,25 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E9%9B%85%E5%9C%96</t>
   </si>
   <si>
-    <t>西雅圖</t>
+    <t>西雅图</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%96%E6%B3%A2%E5%88%97%E5%A4%AB</t>
   </si>
   <si>
-    <t>圖波列夫</t>
+    <t>图波列夫</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%84%E7%BE%85%E6%96%AF</t>
   </si>
   <si>
-    <t>俄羅斯</t>
+    <t>俄罗斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%96%AF%E7%A7%91</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BE%90%E5%B7%B4%E8%BF%AA%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>龐巴迪公司</t>
+    <t>庞巴迪公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8A%A0%E6%8B%BF%E5%A4%A7</t>
@@ -227,13 +227,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%92%99%E7%89%B9%E5%A9%81</t>
   </si>
   <si>
-    <t>蒙特婁</t>
+    <t>蒙特娄</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF%E8%88%AA%E7%A9%BA%E5%B7%A5%E6%A5%AD</t>
   </si>
   <si>
-    <t>巴西航空工業</t>
+    <t>巴西航空工业</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%A5%BF</t>
@@ -245,25 +245,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AD%E5%9C%8B%E5%95%86%E7%94%A8%E9%A3%9B%E6%A9%9F%E6%9C%89%E9%99%90%E8%B2%AC%E4%BB%BB%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>中國商用飛機有限責任公司</t>
+    <t>中国商用飞机有限责任公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BF%94%E9%B3%B3</t>
   </si>
   <si>
-    <t>翔鳳</t>
+    <t>翔凤</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E5%AE%B6%E8%88%AA%E7%A9%BA%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>國家航空公司</t>
+    <t>国家航空公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%96%8B%E6%94%BE%E5%A4%A9%E7%A9%BA</t>
   </si>
   <si>
-    <t>開放天空</t>
+    <t>开放天空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B9%9D%E4%B8%80%E4%B8%80%E4%BA%8B%E4%BB%B6</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%89%E5%83%B9%E8%88%AA%E7%A9%BA%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>廉價航空公司</t>
+    <t>廉价航空公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A5%BF%E5%8D%97%E8%88%AA%E7%A9%BA</t>
@@ -299,13 +299,10 @@
     <t>https://zh.wikipedia.org/wiki/%E7%86%B1%E6%B0%A3%E7%90%83</t>
   </si>
   <si>
-    <t>熱氣球</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A1%9E%E6%96%AF%E7%B4%8D</t>
   </si>
   <si>
-    <t>塞斯納</t>
+    <t>塞斯纳</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8E%AB%E6%8B%89%E5%87%A1</t>
@@ -317,7 +314,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E4%B8%AD%E6%88%B0%E7%88%AD</t>
   </si>
   <si>
-    <t>空中戰爭</t>
+    <t>空中战争</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/B-2%E5%B9%BD%E7%81%B5%E6%88%98%E7%95%A5%E8%BD%B0%E7%82%B8%E6%9C%BA</t>
@@ -329,73 +326,73 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E7%94%A8%E8%88%AA%E7%A9%BA%E9%A3%9B%E8%A1%8C%E5%99%A8</t>
   </si>
   <si>
-    <t>軍用航空飛行器</t>
+    <t>军用航空飞行器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>戰鬥機</t>
+    <t>战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%87%E6%84%B7-27%E6%88%B0%E9%AC%A5%E6%A9%9F</t>
   </si>
   <si>
-    <t>蘇愷-27戰鬥機</t>
+    <t>苏恺-27战斗机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>攻擊機</t>
+    <t>攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/A-10%E9%9B%B7%E9%9C%86%E4%BA%8C%E5%BC%8F%E6%94%BB%E6%93%8A%E6%A9%9F</t>
   </si>
   <si>
-    <t>A-10雷霆二式攻擊機</t>
+    <t>A-10雷霆二式攻击机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>轟炸機</t>
+    <t>轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/B-2%E5%B9%BD%E9%9D%88%E9%9A%B1%E5%BD%A2%E6%88%B0%E7%95%A5%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>B-2幽靈隱形戰略轟炸機</t>
+    <t>B-2幽灵隐形战略轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>運輸機</t>
+    <t>运输机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%89-124%E9%81%8B%E8%BC%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>安-124運輸機</t>
+    <t>安-124运输机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%81%B5%E5%AF%9F%E6%A9%9F</t>
   </si>
   <si>
-    <t>偵察機</t>
+    <t>侦察机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/U-2%E5%81%B5%E5%AF%9F%E6%A9%9F</t>
   </si>
   <si>
-    <t>U-2偵察機</t>
+    <t>U-2侦察机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%9B%B4%E5%8D%87%E6%A9%9F</t>
   </si>
   <si>
-    <t>直升機</t>
+    <t>直升机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E4%BA%A4%E9%80%9A%E7%AE%A1%E5%88%B6</t>
@@ -407,19 +404,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%99%E6%B8%AF%E5%9C%8B%E9%9A%9B%E6%A9%9F%E5%A0%B4</t>
   </si>
   <si>
-    <t>香港國際機場</t>
+    <t>香港国际机场</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%B7%E9%81%94</t>
   </si>
   <si>
-    <t>雷達</t>
+    <t>雷达</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%A9%E6%B0%A3</t>
   </si>
   <si>
-    <t>天氣</t>
+    <t>天气</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8C%97%E7%BE%8E%E6%B4%B2</t>
@@ -431,13 +428,13 @@
     <t>https://zh.wikipedia.org/wiki/%E7%87%83%E7%87%92</t>
   </si>
   <si>
-    <t>燃燒</t>
+    <t>燃烧</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%BA%AB%E5%AE%A4%E6%B0%A3%E9%AB%94</t>
   </si>
   <si>
-    <t>溫室氣體</t>
+    <t>温室气体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%8C%E6%B0%A7%E5%8C%96%E7%A2%B3</t>
@@ -449,7 +446,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%85%A4%E7%85%99</t>
   </si>
   <si>
-    <t>煤煙</t>
+    <t>煤烟</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%B9%E6%B5%81%E5%B1%82</t>
@@ -461,13 +458,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%A9%9F%E9%9B%B2</t>
   </si>
   <si>
-    <t>飛機雲</t>
+    <t>飞机云</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%A3%E6%BA%B6%E8%86%A0</t>
   </si>
   <si>
-    <t>氣溶膠</t>
+    <t>气溶胶</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8D%B7%E4%BA%91</t>
@@ -491,7 +488,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9B%9B%E4%B9%99%E5%9F%BA%E9%89%9B</t>
   </si>
   <si>
-    <t>四乙基鉛</t>
+    <t>四乙基铅</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E5%B7%A5%E7%A8%8B</t>
@@ -527,13 +524,13 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%A1%8C%E5%99%A8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>飛行器列表</t>
+    <t>飞行器列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%A1%8C%E5%99%A8%E8%A3%BD%E9%80%A0%E5%95%86%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>飛行器製造商列表</t>
+    <t>飞行器制造商列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E5%8F%91%E5%8A%A8%E6%9C%BA</t>
@@ -545,13 +542,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%8B%E7%BF%BC%E6%A9%9F</t>
   </si>
   <si>
-    <t>旋翼機</t>
+    <t>旋翼机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%A0%B4%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>機場列表</t>
+    <t>机场列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E8%88%AA%E5%A4%A9%E5%8D%9A%E7%89%A9%E9%A6%86%E5%88%97%E8%A1%A8</t>
@@ -569,31 +566,31 @@
     <t>https://zh.wikipedia.org/wiki/%E5%95%9F%E5%A7%8B%E5%AE%A2%E6%88%B6</t>
   </si>
   <si>
-    <t>啟始客戶</t>
+    <t>启始客户</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%99%B4%E5%B0%84%E5%AE%A2%E6%A9%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>噴射客機列表</t>
+    <t>喷射客机列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B2%A8%E6%A9%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>貨機列表</t>
+    <t>货机列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B2%E6%AD%87%E6%A5%AD%E8%88%AA%E7%A9%BA%E5%85%AC%E5%8F%B8%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>已歇業航空公司列表</t>
+    <t>已歇业航空公司列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E9%9A%9B%E8%88%AA%E7%A9%BA%E9%81%8B%E8%BC%B8%E5%8D%94%E6%9C%83%E8%88%AA%E7%A9%BA%E5%85%AC%E5%8F%B8%E4%BB%A3%E7%A2%BC</t>
   </si>
   <si>
-    <t>國際航空運輸協會航空公司代碼</t>
+    <t>国际航空运输协会航空公司代码</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%B0%91%E7%94%A8%E8%88%AA%E7%A9%BA%E7%AE%A1%E7%90%86%E9%83%A8%E9%97%A8%E5%88%97%E8%A1%A8</t>
@@ -605,13 +602,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E7%94%A8%E8%88%AA%E7%A9%BA</t>
   </si>
   <si>
-    <t>軍用航空</t>
+    <t>军用航空</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E8%BB%8D%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>空軍列表</t>
+    <t>空军列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AF%BC%E5%BC%B9</t>
@@ -623,19 +620,19 @@
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E4%BA%BA%E8%88%AA%E7%A9%BA%E8%BC%89%E5%85%B7</t>
   </si>
   <si>
-    <t>無人航空載具</t>
+    <t>无人航空载具</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A9%A6%E9%A9%97%E6%A9%9F</t>
   </si>
   <si>
-    <t>試驗機</t>
+    <t>试验机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1962%E7%BE%8E%E5%9C%8B%E4%B8%89%E8%BB%8D%E8%88%AA%E7%A9%BA%E5%99%A8%E5%91%BD%E5%90%8D%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>1962美國三軍航空器命名系統</t>
+    <t>1962美国三军航空器命名系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/1962%E5%B9%B4%E7%BE%8E%E5%9B%BD%E4%B8%89%E5%86%9B%E5%AF%BC%E5%BC%B9%E5%8F%8A%E6%97%A0%E4%BA%BA%E6%9C%BA%E5%91%BD%E5%90%8D%E7%B3%BB%E7%BB%9F</t>
@@ -647,7 +644,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E8%BB%8D%E7%94%A8%E8%88%AA%E7%A9%BA%E5%99%A8%E5%BA%8F%E8%99%9F</t>
   </si>
   <si>
-    <t>英國軍用航空器序號</t>
+    <t>英国军用航空器序号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA</t>
@@ -659,43 +656,43 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%A4%A9%E6%A9%9F%E6%A7%8B%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>航天機構列表</t>
+    <t>航天机构列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E7%A9%BF%E6%A2%AD%E6%A9%9F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>太空穿梭機列表</t>
+    <t>太空穿梭机列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>運載火箭列表</t>
+    <t>运载火箭列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%81%8B%E8%BC%89%E7%81%AB%E7%AE%AD%E4%B8%8A%E9%9D%A2%E7%B4%9A%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>運載火箭上面級列表</t>
+    <t>运载火箭上面级列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%81%AF%E7%9B%9F%E7%B3%BB%E5%88%97%E5%AE%87%E5%AE%99%E9%A3%9B%E8%88%B9%E7%99%BC%E5%B0%84%E4%BB%BB%E5%8B%99%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>聯盟系列宇宙飛船發射任務列表</t>
+    <t>联盟系列宇宙飞船发射任务列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%89%99%E5%A4%96%E6%B4%BB%E5%8B%95%E5%88%97%E8%A1%A8_(1965%E5%B9%B4%E8%87%B31999%E5%B9%B4)</t>
   </si>
   <si>
-    <t>艙外活動列表 (1965年至1999年)</t>
+    <t>舱外活动列表 (1965年至1999年)</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A6%AE%E7%82%AE%E8%99%9F%E5%A4%AA%E7%A9%BA%E7%AB%99%E8%89%99%E5%A4%96%E6%B4%BB%E5%8B%95%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>禮炮號太空站艙外活動列表</t>
+    <t>礼炮号太空站舱外活动列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA2000%E5%B9%B4%E7%9A%84%E8%88%B1%E5%A4%96%E6%B4%BB%E5%8A%A8%E5%88%97%E8%A1%A8</t>
@@ -713,7 +710,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%AA%E7%A9%BA%E9%81%8A%E5%AE%A2</t>
   </si>
   <si>
-    <t>太空遊客</t>
+    <t>太空游客</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E7%A9%BA%E4%BA%8B%E6%95%85</t>
@@ -731,7 +728,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%8D%E7%94%A8%E9%A3%9B%E6%A9%9F%E7%A9%BA%E9%9B%A3%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>軍用飛機空難列表</t>
+    <t>军用飞机空难列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%80%A0%E6%88%90%E8%87%B3%E5%B0%9150%E4%BA%BA%E6%AD%BB%E4%BA%A1%E7%9A%84%E7%A9%BA%E9%9A%BE%E5%88%97%E8%A1%A8</t>
@@ -743,31 +740,31 @@
     <t>https://zh.wikipedia.org/wiki/%E8%88%AA%E5%A4%A9%E8%A8%98%E9%8C%84%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>航天記錄列表</t>
+    <t>航天记录列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%A1%8C%E9%80%9F%E5%BA%A6%E8%A8%98%E9%8C%84</t>
   </si>
   <si>
-    <t>飛行速度記錄</t>
+    <t>飞行速度记录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%A1%8C%E8%B7%9D%E9%9B%A2%E8%A8%98%E9%8C%84</t>
   </si>
   <si>
-    <t>飛行距離記錄</t>
+    <t>飞行距离记录</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E6%A9%9F%E6%9C%80%E9%AB%98%E8%A3%BD%E9%80%A0%E6%95%B8%E9%87%8F%E5%88%97%E8%A1%A8</t>
   </si>
   <si>
-    <t>飛機最高製造數量列表</t>
+    <t>飞机最高制造数量列表</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B4%E5%90%88%E8%A7%84%E8%8C%83%E6%96%87%E6%A1%A3</t>
@@ -779,7 +776,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
 </sst>
 </file>
@@ -2513,7 +2510,7 @@
         <v>93</v>
       </c>
       <c r="F48" t="s">
-        <v>94</v>
+        <v>32</v>
       </c>
       <c r="G48" t="n">
         <v>2</v>
@@ -2539,10 +2536,10 @@
         <v>48</v>
       </c>
       <c r="E49" t="s">
+        <v>94</v>
+      </c>
+      <c r="F49" t="s">
         <v>95</v>
-      </c>
-      <c r="F49" t="s">
-        <v>96</v>
       </c>
       <c r="G49" t="n">
         <v>2</v>
@@ -2568,10 +2565,10 @@
         <v>49</v>
       </c>
       <c r="E50" t="s">
+        <v>96</v>
+      </c>
+      <c r="F50" t="s">
         <v>97</v>
-      </c>
-      <c r="F50" t="s">
-        <v>98</v>
       </c>
       <c r="G50" t="n">
         <v>1</v>
@@ -2597,10 +2594,10 @@
         <v>50</v>
       </c>
       <c r="E51" t="s">
+        <v>98</v>
+      </c>
+      <c r="F51" t="s">
         <v>99</v>
-      </c>
-      <c r="F51" t="s">
-        <v>100</v>
       </c>
       <c r="G51" t="n">
         <v>1</v>
@@ -2626,10 +2623,10 @@
         <v>51</v>
       </c>
       <c r="E52" t="s">
+        <v>100</v>
+      </c>
+      <c r="F52" t="s">
         <v>101</v>
-      </c>
-      <c r="F52" t="s">
-        <v>102</v>
       </c>
       <c r="G52" t="n">
         <v>1</v>
@@ -2655,10 +2652,10 @@
         <v>52</v>
       </c>
       <c r="E53" t="s">
+        <v>102</v>
+      </c>
+      <c r="F53" t="s">
         <v>103</v>
-      </c>
-      <c r="F53" t="s">
-        <v>104</v>
       </c>
       <c r="G53" t="n">
         <v>3</v>
@@ -2684,10 +2681,10 @@
         <v>53</v>
       </c>
       <c r="E54" t="s">
+        <v>104</v>
+      </c>
+      <c r="F54" t="s">
         <v>105</v>
-      </c>
-      <c r="F54" t="s">
-        <v>106</v>
       </c>
       <c r="G54" t="n">
         <v>2</v>
@@ -2713,10 +2710,10 @@
         <v>54</v>
       </c>
       <c r="E55" t="s">
+        <v>106</v>
+      </c>
+      <c r="F55" t="s">
         <v>107</v>
-      </c>
-      <c r="F55" t="s">
-        <v>108</v>
       </c>
       <c r="G55" t="n">
         <v>1</v>
@@ -2742,10 +2739,10 @@
         <v>55</v>
       </c>
       <c r="E56" t="s">
+        <v>108</v>
+      </c>
+      <c r="F56" t="s">
         <v>109</v>
-      </c>
-      <c r="F56" t="s">
-        <v>110</v>
       </c>
       <c r="G56" t="n">
         <v>2</v>
@@ -2771,10 +2768,10 @@
         <v>56</v>
       </c>
       <c r="E57" t="s">
+        <v>110</v>
+      </c>
+      <c r="F57" t="s">
         <v>111</v>
-      </c>
-      <c r="F57" t="s">
-        <v>112</v>
       </c>
       <c r="G57" t="n">
         <v>1</v>
@@ -2800,10 +2797,10 @@
         <v>57</v>
       </c>
       <c r="E58" t="s">
+        <v>112</v>
+      </c>
+      <c r="F58" t="s">
         <v>113</v>
-      </c>
-      <c r="F58" t="s">
-        <v>114</v>
       </c>
       <c r="G58" t="n">
         <v>2</v>
@@ -2829,10 +2826,10 @@
         <v>58</v>
       </c>
       <c r="E59" t="s">
+        <v>114</v>
+      </c>
+      <c r="F59" t="s">
         <v>115</v>
-      </c>
-      <c r="F59" t="s">
-        <v>116</v>
       </c>
       <c r="G59" t="n">
         <v>1</v>
@@ -2858,10 +2855,10 @@
         <v>59</v>
       </c>
       <c r="E60" t="s">
+        <v>116</v>
+      </c>
+      <c r="F60" t="s">
         <v>117</v>
-      </c>
-      <c r="F60" t="s">
-        <v>118</v>
       </c>
       <c r="G60" t="n">
         <v>2</v>
@@ -2887,10 +2884,10 @@
         <v>60</v>
       </c>
       <c r="E61" t="s">
+        <v>118</v>
+      </c>
+      <c r="F61" t="s">
         <v>119</v>
-      </c>
-      <c r="F61" t="s">
-        <v>120</v>
       </c>
       <c r="G61" t="n">
         <v>1</v>
@@ -2916,10 +2913,10 @@
         <v>61</v>
       </c>
       <c r="E62" t="s">
+        <v>120</v>
+      </c>
+      <c r="F62" t="s">
         <v>121</v>
-      </c>
-      <c r="F62" t="s">
-        <v>122</v>
       </c>
       <c r="G62" t="n">
         <v>2</v>
@@ -2945,10 +2942,10 @@
         <v>62</v>
       </c>
       <c r="E63" t="s">
+        <v>122</v>
+      </c>
+      <c r="F63" t="s">
         <v>123</v>
-      </c>
-      <c r="F63" t="s">
-        <v>124</v>
       </c>
       <c r="G63" t="n">
         <v>1</v>
@@ -2974,10 +2971,10 @@
         <v>63</v>
       </c>
       <c r="E64" t="s">
+        <v>124</v>
+      </c>
+      <c r="F64" t="s">
         <v>125</v>
-      </c>
-      <c r="F64" t="s">
-        <v>126</v>
       </c>
       <c r="G64" t="n">
         <v>1</v>
@@ -3003,10 +3000,10 @@
         <v>64</v>
       </c>
       <c r="E65" t="s">
+        <v>126</v>
+      </c>
+      <c r="F65" t="s">
         <v>127</v>
-      </c>
-      <c r="F65" t="s">
-        <v>128</v>
       </c>
       <c r="G65" t="n">
         <v>8</v>
@@ -3032,10 +3029,10 @@
         <v>65</v>
       </c>
       <c r="E66" t="s">
+        <v>128</v>
+      </c>
+      <c r="F66" t="s">
         <v>129</v>
-      </c>
-      <c r="F66" t="s">
-        <v>130</v>
       </c>
       <c r="G66" t="n">
         <v>1</v>
@@ -3061,10 +3058,10 @@
         <v>66</v>
       </c>
       <c r="E67" t="s">
+        <v>130</v>
+      </c>
+      <c r="F67" t="s">
         <v>131</v>
-      </c>
-      <c r="F67" t="s">
-        <v>132</v>
       </c>
       <c r="G67" t="n">
         <v>2</v>
@@ -3090,10 +3087,10 @@
         <v>67</v>
       </c>
       <c r="E68" t="s">
+        <v>132</v>
+      </c>
+      <c r="F68" t="s">
         <v>133</v>
-      </c>
-      <c r="F68" t="s">
-        <v>134</v>
       </c>
       <c r="G68" t="n">
         <v>2</v>
@@ -3119,10 +3116,10 @@
         <v>68</v>
       </c>
       <c r="E69" t="s">
+        <v>134</v>
+      </c>
+      <c r="F69" t="s">
         <v>135</v>
-      </c>
-      <c r="F69" t="s">
-        <v>136</v>
       </c>
       <c r="G69" t="n">
         <v>1</v>
@@ -3148,10 +3145,10 @@
         <v>69</v>
       </c>
       <c r="E70" t="s">
+        <v>136</v>
+      </c>
+      <c r="F70" t="s">
         <v>137</v>
-      </c>
-      <c r="F70" t="s">
-        <v>138</v>
       </c>
       <c r="G70" t="n">
         <v>2</v>
@@ -3177,10 +3174,10 @@
         <v>70</v>
       </c>
       <c r="E71" t="s">
+        <v>138</v>
+      </c>
+      <c r="F71" t="s">
         <v>139</v>
-      </c>
-      <c r="F71" t="s">
-        <v>140</v>
       </c>
       <c r="G71" t="n">
         <v>2</v>
@@ -3206,10 +3203,10 @@
         <v>71</v>
       </c>
       <c r="E72" t="s">
+        <v>140</v>
+      </c>
+      <c r="F72" t="s">
         <v>141</v>
-      </c>
-      <c r="F72" t="s">
-        <v>142</v>
       </c>
       <c r="G72" t="n">
         <v>1</v>
@@ -3235,10 +3232,10 @@
         <v>72</v>
       </c>
       <c r="E73" t="s">
+        <v>142</v>
+      </c>
+      <c r="F73" t="s">
         <v>143</v>
-      </c>
-      <c r="F73" t="s">
-        <v>144</v>
       </c>
       <c r="G73" t="n">
         <v>1</v>
@@ -3264,10 +3261,10 @@
         <v>73</v>
       </c>
       <c r="E74" t="s">
+        <v>144</v>
+      </c>
+      <c r="F74" t="s">
         <v>145</v>
-      </c>
-      <c r="F74" t="s">
-        <v>146</v>
       </c>
       <c r="G74" t="n">
         <v>2</v>
@@ -3293,10 +3290,10 @@
         <v>74</v>
       </c>
       <c r="E75" t="s">
+        <v>146</v>
+      </c>
+      <c r="F75" t="s">
         <v>147</v>
-      </c>
-      <c r="F75" t="s">
-        <v>148</v>
       </c>
       <c r="G75" t="n">
         <v>1</v>
@@ -3322,10 +3319,10 @@
         <v>75</v>
       </c>
       <c r="E76" t="s">
+        <v>148</v>
+      </c>
+      <c r="F76" t="s">
         <v>149</v>
-      </c>
-      <c r="F76" t="s">
-        <v>150</v>
       </c>
       <c r="G76" t="n">
         <v>1</v>
@@ -3351,10 +3348,10 @@
         <v>76</v>
       </c>
       <c r="E77" t="s">
+        <v>150</v>
+      </c>
+      <c r="F77" t="s">
         <v>151</v>
-      </c>
-      <c r="F77" t="s">
-        <v>152</v>
       </c>
       <c r="G77" t="n">
         <v>1</v>
@@ -3380,10 +3377,10 @@
         <v>77</v>
       </c>
       <c r="E78" t="s">
+        <v>152</v>
+      </c>
+      <c r="F78" t="s">
         <v>153</v>
-      </c>
-      <c r="F78" t="s">
-        <v>154</v>
       </c>
       <c r="G78" t="n">
         <v>1</v>
@@ -3409,10 +3406,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>154</v>
+      </c>
+      <c r="F79" t="s">
         <v>155</v>
-      </c>
-      <c r="F79" t="s">
-        <v>156</v>
       </c>
       <c r="G79" t="n">
         <v>1</v>
@@ -3438,10 +3435,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>156</v>
+      </c>
+      <c r="F80" t="s">
         <v>157</v>
-      </c>
-      <c r="F80" t="s">
-        <v>158</v>
       </c>
       <c r="G80" t="n">
         <v>1</v>
@@ -3467,10 +3464,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>158</v>
+      </c>
+      <c r="F81" t="s">
         <v>159</v>
-      </c>
-      <c r="F81" t="s">
-        <v>160</v>
       </c>
       <c r="G81" t="n">
         <v>1</v>
@@ -3496,10 +3493,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>160</v>
+      </c>
+      <c r="F82" t="s">
         <v>161</v>
-      </c>
-      <c r="F82" t="s">
-        <v>162</v>
       </c>
       <c r="G82" t="n">
         <v>3</v>
@@ -3525,10 +3522,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>162</v>
+      </c>
+      <c r="F83" t="s">
         <v>163</v>
-      </c>
-      <c r="F83" t="s">
-        <v>164</v>
       </c>
       <c r="G83" t="n">
         <v>4</v>
@@ -3554,10 +3551,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>164</v>
+      </c>
+      <c r="F84" t="s">
         <v>165</v>
-      </c>
-      <c r="F84" t="s">
-        <v>166</v>
       </c>
       <c r="G84" t="n">
         <v>3</v>
@@ -3583,10 +3580,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>166</v>
+      </c>
+      <c r="F85" t="s">
         <v>167</v>
-      </c>
-      <c r="F85" t="s">
-        <v>168</v>
       </c>
       <c r="G85" t="n">
         <v>1</v>
@@ -3612,10 +3609,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>168</v>
+      </c>
+      <c r="F86" t="s">
         <v>169</v>
-      </c>
-      <c r="F86" t="s">
-        <v>170</v>
       </c>
       <c r="G86" t="n">
         <v>2</v>
@@ -3641,10 +3638,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>170</v>
+      </c>
+      <c r="F87" t="s">
         <v>171</v>
-      </c>
-      <c r="F87" t="s">
-        <v>172</v>
       </c>
       <c r="G87" t="n">
         <v>4</v>
@@ -3670,10 +3667,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>172</v>
+      </c>
+      <c r="F88" t="s">
         <v>173</v>
-      </c>
-      <c r="F88" t="s">
-        <v>174</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -3699,10 +3696,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>174</v>
+      </c>
+      <c r="F89" t="s">
         <v>175</v>
-      </c>
-      <c r="F89" t="s">
-        <v>176</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -3728,10 +3725,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>176</v>
+      </c>
+      <c r="F90" t="s">
         <v>177</v>
-      </c>
-      <c r="F90" t="s">
-        <v>178</v>
       </c>
       <c r="G90" t="n">
         <v>8</v>
@@ -3757,10 +3754,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>178</v>
+      </c>
+      <c r="F91" t="s">
         <v>179</v>
-      </c>
-      <c r="F91" t="s">
-        <v>180</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -3815,10 +3812,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>180</v>
+      </c>
+      <c r="F93" t="s">
         <v>181</v>
-      </c>
-      <c r="F93" t="s">
-        <v>182</v>
       </c>
       <c r="G93" t="n">
         <v>1</v>
@@ -3844,10 +3841,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>182</v>
+      </c>
+      <c r="F94" t="s">
         <v>183</v>
-      </c>
-      <c r="F94" t="s">
-        <v>184</v>
       </c>
       <c r="G94" t="n">
         <v>1</v>
@@ -3873,10 +3870,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>184</v>
+      </c>
+      <c r="F95" t="s">
         <v>185</v>
-      </c>
-      <c r="F95" t="s">
-        <v>186</v>
       </c>
       <c r="G95" t="n">
         <v>1</v>
@@ -3902,10 +3899,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>186</v>
+      </c>
+      <c r="F96" t="s">
         <v>187</v>
-      </c>
-      <c r="F96" t="s">
-        <v>188</v>
       </c>
       <c r="G96" t="n">
         <v>1</v>
@@ -3931,10 +3928,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>188</v>
+      </c>
+      <c r="F97" t="s">
         <v>189</v>
-      </c>
-      <c r="F97" t="s">
-        <v>190</v>
       </c>
       <c r="G97" t="n">
         <v>1</v>
@@ -3960,10 +3957,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>190</v>
+      </c>
+      <c r="F98" t="s">
         <v>191</v>
-      </c>
-      <c r="F98" t="s">
-        <v>192</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -3989,10 +3986,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>192</v>
+      </c>
+      <c r="F99" t="s">
         <v>193</v>
-      </c>
-      <c r="F99" t="s">
-        <v>194</v>
       </c>
       <c r="G99" t="n">
         <v>1</v>
@@ -4018,10 +4015,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>194</v>
+      </c>
+      <c r="F100" t="s">
         <v>195</v>
-      </c>
-      <c r="F100" t="s">
-        <v>196</v>
       </c>
       <c r="G100" t="n">
         <v>7</v>
@@ -4047,10 +4044,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
+        <v>196</v>
+      </c>
+      <c r="F101" t="s">
         <v>197</v>
-      </c>
-      <c r="F101" t="s">
-        <v>198</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -4076,10 +4073,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
+        <v>198</v>
+      </c>
+      <c r="F102" t="s">
         <v>199</v>
-      </c>
-      <c r="F102" t="s">
-        <v>200</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -4105,10 +4102,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
+        <v>200</v>
+      </c>
+      <c r="F103" t="s">
         <v>201</v>
-      </c>
-      <c r="F103" t="s">
-        <v>202</v>
       </c>
       <c r="G103" t="n">
         <v>1</v>
@@ -4134,10 +4131,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
+        <v>202</v>
+      </c>
+      <c r="F104" t="s">
         <v>203</v>
-      </c>
-      <c r="F104" t="s">
-        <v>204</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -4163,10 +4160,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
+        <v>204</v>
+      </c>
+      <c r="F105" t="s">
         <v>205</v>
-      </c>
-      <c r="F105" t="s">
-        <v>206</v>
       </c>
       <c r="G105" t="n">
         <v>1</v>
@@ -4192,10 +4189,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
+        <v>206</v>
+      </c>
+      <c r="F106" t="s">
         <v>207</v>
-      </c>
-      <c r="F106" t="s">
-        <v>208</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -4221,10 +4218,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
+        <v>208</v>
+      </c>
+      <c r="F107" t="s">
         <v>209</v>
-      </c>
-      <c r="F107" t="s">
-        <v>210</v>
       </c>
       <c r="G107" t="n">
         <v>1</v>
@@ -4250,10 +4247,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
+        <v>210</v>
+      </c>
+      <c r="F108" t="s">
         <v>211</v>
-      </c>
-      <c r="F108" t="s">
-        <v>212</v>
       </c>
       <c r="G108" t="n">
         <v>3</v>
@@ -4279,10 +4276,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
+        <v>212</v>
+      </c>
+      <c r="F109" t="s">
         <v>213</v>
-      </c>
-      <c r="F109" t="s">
-        <v>214</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -4308,10 +4305,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
+        <v>214</v>
+      </c>
+      <c r="F110" t="s">
         <v>215</v>
-      </c>
-      <c r="F110" t="s">
-        <v>216</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -4337,10 +4334,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
+        <v>216</v>
+      </c>
+      <c r="F111" t="s">
         <v>217</v>
-      </c>
-      <c r="F111" t="s">
-        <v>218</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -4366,10 +4363,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
+        <v>218</v>
+      </c>
+      <c r="F112" t="s">
         <v>219</v>
-      </c>
-      <c r="F112" t="s">
-        <v>220</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -4395,10 +4392,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
+        <v>220</v>
+      </c>
+      <c r="F113" t="s">
         <v>221</v>
-      </c>
-      <c r="F113" t="s">
-        <v>222</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -4424,10 +4421,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
+        <v>222</v>
+      </c>
+      <c r="F114" t="s">
         <v>223</v>
-      </c>
-      <c r="F114" t="s">
-        <v>224</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -4453,10 +4450,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
+        <v>224</v>
+      </c>
+      <c r="F115" t="s">
         <v>225</v>
-      </c>
-      <c r="F115" t="s">
-        <v>226</v>
       </c>
       <c r="G115" t="n">
         <v>1</v>
@@ -4482,10 +4479,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
+        <v>226</v>
+      </c>
+      <c r="F116" t="s">
         <v>227</v>
-      </c>
-      <c r="F116" t="s">
-        <v>228</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -4511,10 +4508,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
+        <v>228</v>
+      </c>
+      <c r="F117" t="s">
         <v>229</v>
-      </c>
-      <c r="F117" t="s">
-        <v>230</v>
       </c>
       <c r="G117" t="n">
         <v>1</v>
@@ -4540,10 +4537,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
+        <v>230</v>
+      </c>
+      <c r="F118" t="s">
         <v>231</v>
-      </c>
-      <c r="F118" t="s">
-        <v>232</v>
       </c>
       <c r="G118" t="n">
         <v>1</v>
@@ -4569,10 +4566,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
+        <v>232</v>
+      </c>
+      <c r="F119" t="s">
         <v>233</v>
-      </c>
-      <c r="F119" t="s">
-        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>2</v>
@@ -4598,10 +4595,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
+        <v>234</v>
+      </c>
+      <c r="F120" t="s">
         <v>235</v>
-      </c>
-      <c r="F120" t="s">
-        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -4627,10 +4624,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
+        <v>236</v>
+      </c>
+      <c r="F121" t="s">
         <v>237</v>
-      </c>
-      <c r="F121" t="s">
-        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>1</v>
@@ -4656,10 +4653,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
+        <v>238</v>
+      </c>
+      <c r="F122" t="s">
         <v>239</v>
-      </c>
-      <c r="F122" t="s">
-        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>1</v>
@@ -4685,10 +4682,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
+        <v>240</v>
+      </c>
+      <c r="F123" t="s">
         <v>241</v>
-      </c>
-      <c r="F123" t="s">
-        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>1</v>
@@ -4714,10 +4711,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
+        <v>242</v>
+      </c>
+      <c r="F124" t="s">
         <v>243</v>
-      </c>
-      <c r="F124" t="s">
-        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>1</v>
@@ -4743,10 +4740,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
+        <v>244</v>
+      </c>
+      <c r="F125" t="s">
         <v>245</v>
-      </c>
-      <c r="F125" t="s">
-        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -4772,10 +4769,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
+        <v>246</v>
+      </c>
+      <c r="F126" t="s">
         <v>247</v>
-      </c>
-      <c r="F126" t="s">
-        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -4801,10 +4798,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
+        <v>248</v>
+      </c>
+      <c r="F127" t="s">
         <v>249</v>
-      </c>
-      <c r="F127" t="s">
-        <v>250</v>
       </c>
       <c r="G127" t="n">
         <v>3</v>
@@ -4830,10 +4827,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
+        <v>250</v>
+      </c>
+      <c r="F128" t="s">
         <v>251</v>
-      </c>
-      <c r="F128" t="s">
-        <v>252</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -4859,10 +4856,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
+        <v>252</v>
+      </c>
+      <c r="F129" t="s">
         <v>253</v>
-      </c>
-      <c r="F129" t="s">
-        <v>254</v>
       </c>
       <c r="G129" t="n">
         <v>1</v>
